--- a/data/Capricoin/Capricoin20200101.xlsx
+++ b/data/Capricoin/Capricoin20200101.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102">
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121">
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138">
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142">
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="176">
